--- a/data/match_sent/excel/match_2468.csv.xlsx
+++ b/data/match_sent/excel/match_2468.csv.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25028"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Phuong\PycharmProjects\tosdr\data\match_sent\excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Notebook Dell\PycharmProjects\tosdr\data\match_sent\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C50207A7-B597-4577-9AC1-5914821B4910}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35601A8C-3EC1-4A9B-A130-185D9388777F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{A796CF4B-CC9A-4622-A5E2-3221FBA24A93}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{A796CF4B-CC9A-4622-A5E2-3221FBA24A93}"/>
   </bookViews>
   <sheets>
     <sheet name="match_2468.csv" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="518" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="517" uniqueCount="96">
   <si>
     <t>Source.Name</t>
   </si>
@@ -326,6 +326,13 @@
   </si>
   <si>
     <t>Thank you for helping us create one of the best communities in the world, The Instagram Team</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+</t>
   </si>
 </sst>
 </file>
@@ -402,7 +409,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -410,6 +417,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -726,8 +736,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A8DFD3DA-D816-420C-8926-AB8CC73522CB}">
   <dimension ref="A1:G74"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:G74"/>
+    <sheetView tabSelected="1" topLeftCell="B61" workbookViewId="0">
+      <selection activeCell="D28" sqref="D28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -1361,7 +1371,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="28" spans="1:7">
+    <row r="28" spans="1:7" ht="28.8">
       <c r="A28" s="3" t="s">
         <v>7</v>
       </c>
@@ -1371,17 +1381,15 @@
       <c r="C28" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="D28" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="E28" s="4" t="s">
-        <v>30</v>
-      </c>
+      <c r="D28" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="E28" s="4"/>
       <c r="F28" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="G28" s="4" t="s">
-        <v>41</v>
+      <c r="G28" s="7" t="s">
+        <v>95</v>
       </c>
     </row>
     <row r="29" spans="1:7">
